--- a/Synthèse-Experiences/AllExperiments.xlsx
+++ b/Synthèse-Experiences/AllExperiments.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
     <sheet name="Interpretations" sheetId="2" r:id="rId2"/>
     <sheet name="Resolution" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -4267,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="76" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
@@ -5093,7 +5094,7 @@
       <c r="AG10" s="88"/>
       <c r="AH10" s="89"/>
     </row>
-    <row r="11" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -5279,7 +5280,7 @@
       <c r="AG12" s="88"/>
       <c r="AH12" s="89"/>
     </row>
-    <row r="13" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>10</v>
       </c>
@@ -5367,7 +5368,7 @@
       <c r="AG13" s="88"/>
       <c r="AH13" s="89"/>
     </row>
-    <row r="14" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -9401,7 +9402,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>55</v>
@@ -9627,4 +9628,91 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D10:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="62.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f>VAR(D10:D15)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>473684211</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>480000000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>470930233</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>480769231</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>476694915</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>471698113</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>469924812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>